--- a/biology/Médecine/Muscle_petit_rhomboïde/Muscle_petit_rhomboïde.xlsx
+++ b/biology/Médecine/Muscle_petit_rhomboïde/Muscle_petit_rhomboïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_petit_rhombo%C3%AFde</t>
+          <t>Muscle_petit_rhomboïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit rhomboïde est un muscle de l'épaule et du rachis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_petit_rhombo%C3%AFde</t>
+          <t>Muscle_petit_rhomboïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Son origine est tendineuse sur les processus épineux des vertèbres cervicales C7 et T1.
-Trajet
-Il se dirige obliquement et latéralement.
-Vue latérale.Vue de biais.Vue postérieure.Animation.Muscle petit rhomboïde
-Terminaison
-Il se termine sur le bord médial de la scapula au niveau de l'épine scapulaire.
-Innervation
-Il est innervé par le nerf scapulaire dorsal (C4 et C5)[1].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son origine est tendineuse sur les processus épineux des vertèbres cervicales C7 et T1.
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_petit_rhombo%C3%AFde</t>
+          <t>Muscle_petit_rhomboïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +557,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Représentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se dirige obliquement et latéralement.
+Vue latérale.Vue de biais.Vue postérieure.Animation.Muscle petit rhomboïde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_petit_rhomboïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_petit_rhombo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Représentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur le bord médial de la scapula au niveau de l'épine scapulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_petit_rhomboïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_petit_rhombo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Représentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le nerf scapulaire dorsal (C4 et C5).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_petit_rhomboïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_petit_rhombo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fonction et action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a comme fonction : fixateur de la scapula contre le thorax et adducteur et élévateur de la scapula.
 </t>
